--- a/Analysis/MFCC Analysis.xlsx
+++ b/Analysis/MFCC Analysis.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="122">
   <si>
     <t>hidden layer</t>
   </si>
@@ -384,13 +384,19 @@
   </si>
   <si>
     <t>9,19</t>
+  </si>
+  <si>
+    <t>Traning Sample 20 - Testing Sample 10</t>
+  </si>
+  <si>
+    <t>Traning Sample 15 - Testing Sample 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,8 +412,16 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -432,6 +446,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -445,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -477,6 +497,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -792,11 +825,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L150"/>
+  <dimension ref="A1:L221"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K138" sqref="K138"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -852,43 +885,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3">
-        <v>13</v>
-      </c>
-      <c r="G2" s="3">
-        <v>13</v>
-      </c>
-      <c r="H2" s="3">
-        <f>A2*B2</f>
-        <v>21</v>
-      </c>
-      <c r="I2" s="3">
-        <f>A2*C2</f>
-        <v>9</v>
-      </c>
-      <c r="J2" s="3">
-        <v>5</v>
-      </c>
-      <c r="K2" s="3">
-        <f>J2*100/I2</f>
-        <v>55.555555555555557</v>
-      </c>
+    <row r="2" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
@@ -913,7 +924,7 @@
         <v>13</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" ref="H3:H43" si="0">A3*B3</f>
+        <f t="shared" ref="H3:H42" si="0">A3*B3</f>
         <v>75</v>
       </c>
       <c r="I3" s="3">
@@ -1076,7 +1087,7 @@
         <v>9</v>
       </c>
       <c r="K7" s="3">
-        <f t="shared" ref="K7:K70" si="2">J7*100/I7</f>
+        <f t="shared" ref="K7:K69" si="2">J7*100/I7</f>
         <v>36</v>
       </c>
     </row>
@@ -1344,39 +1355,39 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>5</v>
-      </c>
-      <c r="B15" s="3">
+      <c r="A15" s="4">
+        <v>5</v>
+      </c>
+      <c r="B15" s="4">
         <v>10</v>
       </c>
-      <c r="C15" s="3">
-        <v>5</v>
-      </c>
-      <c r="D15" s="8">
-        <v>13</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="C15" s="4">
+        <v>5</v>
+      </c>
+      <c r="D15" s="9">
+        <v>13</v>
+      </c>
+      <c r="E15" s="4">
         <v>1</v>
       </c>
-      <c r="F15" s="3">
-        <v>13</v>
-      </c>
-      <c r="G15" s="3">
-        <v>13</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="F15" s="4">
+        <v>13</v>
+      </c>
+      <c r="G15" s="4">
+        <v>13</v>
+      </c>
+      <c r="H15" s="4">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="4">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="J15" s="3">
-        <v>15</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="J15" s="4">
+        <v>15</v>
+      </c>
+      <c r="K15" s="4">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
@@ -1990,89 +2001,117 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H32" s="3">
+      <c r="A32" s="5">
+        <v>5</v>
+      </c>
+      <c r="B32" s="5">
+        <v>15</v>
+      </c>
+      <c r="C32" s="5">
+        <v>5</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="10">
+        <v>2</v>
+      </c>
+      <c r="F32" s="10">
+        <v>13</v>
+      </c>
+      <c r="G32" s="10">
+        <v>13</v>
+      </c>
+      <c r="H32" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
-        <v>5</v>
-      </c>
-      <c r="B33" s="5">
-        <v>15</v>
-      </c>
-      <c r="C33" s="5">
-        <v>5</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="10">
-        <v>2</v>
-      </c>
-      <c r="F33" s="10">
-        <v>13</v>
-      </c>
-      <c r="G33" s="10">
-        <v>13</v>
-      </c>
-      <c r="H33" s="5">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="I33" s="5">
-        <f>PRODUCT(A20,C33)</f>
-        <v>25</v>
-      </c>
-      <c r="J33" s="5">
-        <v>13</v>
-      </c>
-      <c r="K33" s="5">
+        <v>75</v>
+      </c>
+      <c r="I32" s="5">
+        <f t="shared" ref="I32:I43" si="4">PRODUCT(A20,C32)</f>
+        <v>25</v>
+      </c>
+      <c r="J32" s="5">
+        <v>13</v>
+      </c>
+      <c r="K32" s="5">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
     </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="7">
+        <v>5</v>
+      </c>
+      <c r="B33" s="7">
+        <v>15</v>
+      </c>
+      <c r="C33" s="7">
+        <v>5</v>
+      </c>
+      <c r="D33" s="7">
+        <v>8</v>
+      </c>
+      <c r="E33" s="11">
+        <v>1</v>
+      </c>
+      <c r="F33" s="11">
+        <v>13</v>
+      </c>
+      <c r="G33" s="11">
+        <v>13</v>
+      </c>
+      <c r="H33" s="7">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="I33" s="7">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="J33" s="7">
+        <v>6</v>
+      </c>
+      <c r="K33" s="3">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+    </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="7">
-        <v>5</v>
-      </c>
-      <c r="B34" s="7">
-        <v>15</v>
-      </c>
-      <c r="C34" s="7">
-        <v>5</v>
-      </c>
-      <c r="D34" s="7">
-        <v>8</v>
-      </c>
-      <c r="E34" s="11">
+      <c r="A34" s="3">
+        <v>5</v>
+      </c>
+      <c r="B34" s="3">
+        <v>15</v>
+      </c>
+      <c r="C34" s="3">
+        <v>5</v>
+      </c>
+      <c r="D34" s="3">
+        <v>20</v>
+      </c>
+      <c r="E34" s="3">
         <v>1</v>
       </c>
-      <c r="F34" s="11">
-        <v>13</v>
-      </c>
-      <c r="G34" s="11">
-        <v>13</v>
-      </c>
-      <c r="H34" s="7">
+      <c r="F34" s="3">
+        <v>13</v>
+      </c>
+      <c r="G34" s="3">
+        <v>13</v>
+      </c>
+      <c r="H34" s="3">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="I34" s="7">
-        <f t="shared" ref="I34:I44" si="4">PRODUCT(A21,C34)</f>
-        <v>25</v>
-      </c>
-      <c r="J34" s="7">
-        <v>6</v>
+      <c r="I34" s="3">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="J34" s="3">
+        <v>7</v>
       </c>
       <c r="K34" s="3">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -2085,11 +2124,11 @@
       <c r="C35" s="3">
         <v>5</v>
       </c>
-      <c r="D35" s="3">
-        <v>20</v>
+      <c r="D35" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="E35" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35" s="3">
         <v>13</v>
@@ -2106,11 +2145,11 @@
         <v>25</v>
       </c>
       <c r="J35" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K35" s="3">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -2124,7 +2163,7 @@
         <v>5</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E36" s="3">
         <v>3</v>
@@ -2144,89 +2183,89 @@
         <v>25</v>
       </c>
       <c r="J36" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K36" s="3">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
-        <v>5</v>
-      </c>
-      <c r="B37" s="3">
-        <v>15</v>
-      </c>
-      <c r="C37" s="3">
-        <v>5</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" s="3">
+      <c r="A37" s="5">
+        <v>5</v>
+      </c>
+      <c r="B37" s="5">
+        <v>15</v>
+      </c>
+      <c r="C37" s="5">
+        <v>5</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="5">
         <v>3</v>
       </c>
-      <c r="F37" s="3">
-        <v>13</v>
-      </c>
-      <c r="G37" s="3">
-        <v>13</v>
-      </c>
-      <c r="H37" s="3">
+      <c r="F37" s="5">
+        <v>13</v>
+      </c>
+      <c r="G37" s="5">
+        <v>13</v>
+      </c>
+      <c r="H37" s="5">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="5">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="J37" s="3">
-        <v>11</v>
-      </c>
-      <c r="K37" s="3">
-        <f t="shared" si="2"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="5">
-        <v>5</v>
-      </c>
-      <c r="B38" s="5">
-        <v>15</v>
-      </c>
-      <c r="C38" s="5">
-        <v>5</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="5">
-        <v>3</v>
-      </c>
-      <c r="F38" s="5">
-        <v>13</v>
-      </c>
-      <c r="G38" s="5">
-        <v>13</v>
-      </c>
-      <c r="H38" s="5">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="I38" s="5">
-        <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="J38" s="5">
+      <c r="J37" s="5">
         <v>12</v>
       </c>
-      <c r="K38" s="5">
+      <c r="K37" s="5">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
     </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>5</v>
+      </c>
+      <c r="B38" s="3">
+        <v>15</v>
+      </c>
+      <c r="C38" s="3">
+        <v>5</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="3">
+        <v>3</v>
+      </c>
+      <c r="F38" s="3">
+        <v>13</v>
+      </c>
+      <c r="G38" s="3">
+        <v>13</v>
+      </c>
+      <c r="H38" s="3">
+        <f>A38*B38</f>
+        <v>75</v>
+      </c>
+      <c r="I38" s="3">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="J38" s="3">
+        <v>9</v>
+      </c>
+      <c r="K38" s="3">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+    </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>5</v>
@@ -2238,10 +2277,10 @@
         <v>5</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E39" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F39" s="3">
         <v>13</v>
@@ -2250,7 +2289,7 @@
         <v>13</v>
       </c>
       <c r="H39" s="3">
-        <f>A39*B39</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="I39" s="3">
@@ -2276,7 +2315,7 @@
         <v>5</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E40" s="3">
         <v>4</v>
@@ -2296,89 +2335,89 @@
         <v>25</v>
       </c>
       <c r="J40" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K40" s="3">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
-        <v>5</v>
-      </c>
-      <c r="B41" s="3">
-        <v>15</v>
-      </c>
-      <c r="C41" s="3">
-        <v>5</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" s="3">
-        <v>4</v>
-      </c>
-      <c r="F41" s="3">
-        <v>13</v>
-      </c>
-      <c r="G41" s="3">
-        <v>13</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="A41" s="5">
+        <v>5</v>
+      </c>
+      <c r="B41" s="5">
+        <v>15</v>
+      </c>
+      <c r="C41" s="5">
+        <v>5</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="5">
+        <v>2</v>
+      </c>
+      <c r="F41" s="5">
+        <v>13</v>
+      </c>
+      <c r="G41" s="5">
+        <v>13</v>
+      </c>
+      <c r="H41" s="5">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I41" s="5">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="J41" s="3">
-        <v>10</v>
-      </c>
-      <c r="K41" s="3">
-        <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="5">
-        <v>5</v>
-      </c>
-      <c r="B42" s="5">
-        <v>15</v>
-      </c>
-      <c r="C42" s="5">
-        <v>5</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" s="5">
-        <v>2</v>
-      </c>
-      <c r="F42" s="5">
-        <v>13</v>
-      </c>
-      <c r="G42" s="5">
-        <v>13</v>
-      </c>
-      <c r="H42" s="5">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="I42" s="5">
-        <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="J42" s="5">
+      <c r="J41" s="5">
         <v>12</v>
       </c>
-      <c r="K42" s="5">
+      <c r="K41" s="5">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
     </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>5</v>
+      </c>
+      <c r="B42" s="3">
+        <v>15</v>
+      </c>
+      <c r="C42" s="3">
+        <v>5</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="3">
+        <v>2</v>
+      </c>
+      <c r="F42" s="3">
+        <v>13</v>
+      </c>
+      <c r="G42" s="3">
+        <v>13</v>
+      </c>
+      <c r="H42" s="3">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="I42" s="3">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="J42" s="3">
+        <v>12</v>
+      </c>
+      <c r="K42" s="3">
+        <f>J42*100/I42</f>
+        <v>48</v>
+      </c>
+    </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>5</v>
@@ -2390,7 +2429,7 @@
         <v>5</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E43" s="3">
         <v>2</v>
@@ -2402,7 +2441,7 @@
         <v>13</v>
       </c>
       <c r="H43" s="3">
-        <f t="shared" si="0"/>
+        <f>A43*B43</f>
         <v>75</v>
       </c>
       <c r="I43" s="3">
@@ -2410,11 +2449,11 @@
         <v>25</v>
       </c>
       <c r="J43" s="3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K43" s="3">
-        <f>J43*100/I43</f>
-        <v>48</v>
+        <f t="shared" si="2"/>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -2428,7 +2467,7 @@
         <v>5</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E44" s="3">
         <v>2</v>
@@ -2440,19 +2479,19 @@
         <v>13</v>
       </c>
       <c r="H44" s="3">
-        <f>A44*B44</f>
+        <f t="shared" ref="H44:H107" si="5">A44*B44</f>
         <v>75</v>
       </c>
       <c r="I44" s="3">
-        <f t="shared" si="4"/>
+        <f>PRODUCT(A44,C44)</f>
         <v>25</v>
       </c>
       <c r="J44" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K44" s="3">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -2466,7 +2505,7 @@
         <v>5</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E45" s="3">
         <v>2</v>
@@ -2478,11 +2517,11 @@
         <v>13</v>
       </c>
       <c r="H45" s="3">
-        <f t="shared" ref="H45:H108" si="5">A45*B45</f>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="I45" s="3">
-        <f>PRODUCT(A45,C45)</f>
+        <f>PRODUCT(A32,C45)</f>
         <v>25</v>
       </c>
       <c r="J45" s="3">
@@ -2504,10 +2543,10 @@
         <v>5</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E46" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F46" s="3">
         <v>13</v>
@@ -2520,15 +2559,15 @@
         <v>75</v>
       </c>
       <c r="I46" s="3">
-        <f>PRODUCT(A33,C46)</f>
+        <f t="shared" ref="I46:I110" si="6">PRODUCT(A33,C46)</f>
         <v>25</v>
       </c>
       <c r="J46" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K46" s="3">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -2542,7 +2581,7 @@
         <v>5</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E47" s="3">
         <v>3</v>
@@ -2558,7 +2597,7 @@
         <v>75</v>
       </c>
       <c r="I47" s="3">
-        <f t="shared" ref="I47:I111" si="6">PRODUCT(A34,C47)</f>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="J47" s="3">
@@ -2570,81 +2609,81 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
-        <v>5</v>
-      </c>
-      <c r="B48" s="3">
-        <v>15</v>
-      </c>
-      <c r="C48" s="3">
-        <v>5</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E48" s="3">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3">
-        <v>13</v>
-      </c>
-      <c r="G48" s="3">
-        <v>13</v>
-      </c>
-      <c r="H48" s="3">
+      <c r="A48" s="5">
+        <v>5</v>
+      </c>
+      <c r="B48" s="5">
+        <v>15</v>
+      </c>
+      <c r="C48" s="5">
+        <v>5</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="5">
+        <v>2</v>
+      </c>
+      <c r="F48" s="5">
+        <v>13</v>
+      </c>
+      <c r="G48" s="5">
+        <v>13</v>
+      </c>
+      <c r="H48" s="5">
         <f t="shared" si="5"/>
         <v>75</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="5">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="J48" s="3">
-        <v>11</v>
-      </c>
-      <c r="K48" s="3">
-        <f t="shared" si="2"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="5">
-        <v>5</v>
-      </c>
-      <c r="B49" s="5">
-        <v>15</v>
-      </c>
-      <c r="C49" s="5">
-        <v>5</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E49" s="5">
-        <v>2</v>
-      </c>
-      <c r="F49" s="5">
-        <v>13</v>
-      </c>
-      <c r="G49" s="5">
-        <v>13</v>
-      </c>
-      <c r="H49" s="5">
-        <f t="shared" si="5"/>
-        <v>75</v>
-      </c>
-      <c r="I49" s="5">
-        <f t="shared" si="6"/>
-        <v>25</v>
-      </c>
-      <c r="J49" s="5">
-        <v>13</v>
-      </c>
-      <c r="K49" s="5">
+      <c r="J48" s="5">
+        <v>13</v>
+      </c>
+      <c r="K48" s="5">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
     </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>5</v>
+      </c>
+      <c r="B49" s="3">
+        <v>15</v>
+      </c>
+      <c r="C49" s="3">
+        <v>5</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2</v>
+      </c>
+      <c r="F49" s="3">
+        <v>13</v>
+      </c>
+      <c r="G49" s="3">
+        <v>13</v>
+      </c>
+      <c r="H49" s="3">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="I49" s="3">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="J49" s="3">
+        <v>5</v>
+      </c>
+      <c r="K49" s="3">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>5</v>
@@ -2656,7 +2695,7 @@
         <v>5</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E50" s="3">
         <v>2</v>
@@ -2676,11 +2715,11 @@
         <v>25</v>
       </c>
       <c r="J50" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K50" s="3">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -2694,7 +2733,7 @@
         <v>5</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E51" s="3">
         <v>2</v>
@@ -2714,11 +2753,11 @@
         <v>25</v>
       </c>
       <c r="J51" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K51" s="3">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -2732,7 +2771,7 @@
         <v>5</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E52" s="3">
         <v>2</v>
@@ -2752,11 +2791,11 @@
         <v>25</v>
       </c>
       <c r="J52" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K52" s="3">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -2770,7 +2809,7 @@
         <v>5</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E53" s="3">
         <v>2</v>
@@ -2808,7 +2847,7 @@
         <v>5</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E54" s="3">
         <v>2</v>
@@ -2828,11 +2867,11 @@
         <v>25</v>
       </c>
       <c r="J54" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K54" s="3">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -2846,7 +2885,7 @@
         <v>5</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E55" s="3">
         <v>2</v>
@@ -2866,11 +2905,11 @@
         <v>25</v>
       </c>
       <c r="J55" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K55" s="3">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -2884,7 +2923,7 @@
         <v>5</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E56" s="3">
         <v>2</v>
@@ -2904,11 +2943,11 @@
         <v>25</v>
       </c>
       <c r="J56" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K56" s="3">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -2922,7 +2961,7 @@
         <v>5</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E57" s="3">
         <v>2</v>
@@ -2942,11 +2981,11 @@
         <v>25</v>
       </c>
       <c r="J57" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K57" s="3">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -2960,7 +2999,7 @@
         <v>5</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E58" s="3">
         <v>2</v>
@@ -2980,11 +3019,11 @@
         <v>25</v>
       </c>
       <c r="J58" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -2998,7 +3037,7 @@
         <v>5</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E59" s="3">
         <v>2</v>
@@ -3018,11 +3057,11 @@
         <v>25</v>
       </c>
       <c r="J59" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K59" s="3">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -3036,7 +3075,7 @@
         <v>5</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E60" s="3">
         <v>2</v>
@@ -3056,11 +3095,11 @@
         <v>25</v>
       </c>
       <c r="J60" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K60" s="3">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -3074,7 +3113,7 @@
         <v>5</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E61" s="3">
         <v>2</v>
@@ -3094,11 +3133,11 @@
         <v>25</v>
       </c>
       <c r="J61" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K61" s="3">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -3112,7 +3151,7 @@
         <v>5</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E62" s="3">
         <v>2</v>
@@ -3150,7 +3189,7 @@
         <v>5</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E63" s="3">
         <v>2</v>
@@ -3170,11 +3209,11 @@
         <v>25</v>
       </c>
       <c r="J63" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K63" s="3">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -3188,7 +3227,7 @@
         <v>5</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E64" s="3">
         <v>2</v>
@@ -3208,11 +3247,11 @@
         <v>25</v>
       </c>
       <c r="J64" s="3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K64" s="3">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -3226,7 +3265,7 @@
         <v>5</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E65" s="3">
         <v>2</v>
@@ -3246,11 +3285,11 @@
         <v>25</v>
       </c>
       <c r="J65" s="3">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K65" s="3">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -3264,7 +3303,7 @@
         <v>5</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E66" s="3">
         <v>2</v>
@@ -3284,11 +3323,11 @@
         <v>25</v>
       </c>
       <c r="J66" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K66" s="3">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -3302,7 +3341,7 @@
         <v>5</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E67" s="3">
         <v>2</v>
@@ -3322,11 +3361,11 @@
         <v>25</v>
       </c>
       <c r="J67" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K67" s="3">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -3340,7 +3379,7 @@
         <v>5</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E68" s="3">
         <v>2</v>
@@ -3360,11 +3399,11 @@
         <v>25</v>
       </c>
       <c r="J68" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K68" s="3">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -3378,7 +3417,7 @@
         <v>5</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E69" s="3">
         <v>2</v>
@@ -3416,7 +3455,7 @@
         <v>5</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E70" s="3">
         <v>2</v>
@@ -3436,11 +3475,11 @@
         <v>25</v>
       </c>
       <c r="J70" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K70" s="3">
-        <f t="shared" si="2"/>
-        <v>32</v>
+        <f t="shared" ref="K70:K108" si="7">J70*100/I70</f>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -3454,7 +3493,7 @@
         <v>5</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E71" s="3">
         <v>2</v>
@@ -3474,11 +3513,11 @@
         <v>25</v>
       </c>
       <c r="J71" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K71" s="3">
-        <f t="shared" ref="K71:K109" si="7">J71*100/I71</f>
-        <v>20</v>
+        <f t="shared" si="7"/>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -3492,7 +3531,7 @@
         <v>5</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E72" s="3">
         <v>2</v>
@@ -3512,11 +3551,11 @@
         <v>25</v>
       </c>
       <c r="J72" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K72" s="3">
         <f t="shared" si="7"/>
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -3530,7 +3569,7 @@
         <v>5</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E73" s="3">
         <v>2</v>
@@ -3550,11 +3589,11 @@
         <v>25</v>
       </c>
       <c r="J73" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K73" s="3">
         <f t="shared" si="7"/>
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -3568,7 +3607,7 @@
         <v>5</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E74" s="3">
         <v>2</v>
@@ -3588,11 +3627,11 @@
         <v>25</v>
       </c>
       <c r="J74" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K74" s="3">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -3606,7 +3645,7 @@
         <v>5</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E75" s="3">
         <v>2</v>
@@ -3644,7 +3683,7 @@
         <v>5</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E76" s="3">
         <v>2</v>
@@ -3664,11 +3703,11 @@
         <v>25</v>
       </c>
       <c r="J76" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K76" s="3">
         <f t="shared" si="7"/>
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -3682,7 +3721,7 @@
         <v>5</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E77" s="3">
         <v>2</v>
@@ -3702,11 +3741,11 @@
         <v>25</v>
       </c>
       <c r="J77" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K77" s="3">
         <f t="shared" si="7"/>
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
@@ -3720,7 +3759,7 @@
         <v>5</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E78" s="3">
         <v>2</v>
@@ -3740,11 +3779,11 @@
         <v>25</v>
       </c>
       <c r="J78" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K78" s="3">
         <f t="shared" si="7"/>
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
@@ -3758,7 +3797,7 @@
         <v>5</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E79" s="3">
         <v>2</v>
@@ -3778,11 +3817,11 @@
         <v>25</v>
       </c>
       <c r="J79" s="3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K79" s="3">
         <f t="shared" si="7"/>
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
@@ -3796,7 +3835,7 @@
         <v>5</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E80" s="3">
         <v>2</v>
@@ -3816,11 +3855,11 @@
         <v>25</v>
       </c>
       <c r="J80" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K80" s="3">
         <f t="shared" si="7"/>
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -3834,7 +3873,7 @@
         <v>5</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E81" s="3">
         <v>2</v>
@@ -3854,11 +3893,11 @@
         <v>25</v>
       </c>
       <c r="J81" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K81" s="3">
         <f t="shared" si="7"/>
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -3872,7 +3911,7 @@
         <v>5</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E82" s="3">
         <v>2</v>
@@ -3892,11 +3931,11 @@
         <v>25</v>
       </c>
       <c r="J82" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K82" s="3">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -3910,7 +3949,7 @@
         <v>5</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E83" s="3">
         <v>2</v>
@@ -3930,11 +3969,11 @@
         <v>25</v>
       </c>
       <c r="J83" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K83" s="3">
         <f t="shared" si="7"/>
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -3948,7 +3987,7 @@
         <v>5</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E84" s="3">
         <v>2</v>
@@ -3968,11 +4007,11 @@
         <v>25</v>
       </c>
       <c r="J84" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K84" s="3">
         <f t="shared" si="7"/>
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -3986,7 +4025,7 @@
         <v>5</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E85" s="3">
         <v>2</v>
@@ -4006,11 +4045,11 @@
         <v>25</v>
       </c>
       <c r="J85" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K85" s="3">
         <f t="shared" si="7"/>
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -4024,7 +4063,7 @@
         <v>5</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E86" s="3">
         <v>2</v>
@@ -4044,11 +4083,11 @@
         <v>25</v>
       </c>
       <c r="J86" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K86" s="3">
         <f t="shared" si="7"/>
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -4062,7 +4101,7 @@
         <v>5</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E87" s="3">
         <v>2</v>
@@ -4082,11 +4121,11 @@
         <v>25</v>
       </c>
       <c r="J87" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K87" s="3">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -4100,7 +4139,7 @@
         <v>5</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E88" s="3">
         <v>2</v>
@@ -4120,11 +4159,11 @@
         <v>25</v>
       </c>
       <c r="J88" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K88" s="3">
         <f t="shared" si="7"/>
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -4138,7 +4177,7 @@
         <v>5</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E89" s="3">
         <v>2</v>
@@ -4158,11 +4197,11 @@
         <v>25</v>
       </c>
       <c r="J89" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K89" s="3">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -4176,7 +4215,7 @@
         <v>5</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E90" s="3">
         <v>2</v>
@@ -4196,11 +4235,11 @@
         <v>25</v>
       </c>
       <c r="J90" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K90" s="3">
         <f t="shared" si="7"/>
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -4213,8 +4252,8 @@
       <c r="C91" s="3">
         <v>5</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>67</v>
+      <c r="D91" s="3">
+        <v>6</v>
       </c>
       <c r="E91" s="3">
         <v>2</v>
@@ -4234,11 +4273,11 @@
         <v>25</v>
       </c>
       <c r="J91" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K91" s="3">
         <f t="shared" si="7"/>
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -4251,8 +4290,8 @@
       <c r="C92" s="3">
         <v>5</v>
       </c>
-      <c r="D92" s="3">
-        <v>6</v>
+      <c r="D92" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="E92" s="3">
         <v>2</v>
@@ -4272,11 +4311,11 @@
         <v>25</v>
       </c>
       <c r="J92" s="3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K92" s="3">
         <f t="shared" si="7"/>
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -4290,7 +4329,7 @@
         <v>5</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E93" s="3">
         <v>2</v>
@@ -4310,11 +4349,11 @@
         <v>25</v>
       </c>
       <c r="J93" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K93" s="3">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -4328,7 +4367,7 @@
         <v>5</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E94" s="3">
         <v>2</v>
@@ -4366,7 +4405,7 @@
         <v>5</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E95" s="3">
         <v>2</v>
@@ -4386,11 +4425,11 @@
         <v>25</v>
       </c>
       <c r="J95" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K95" s="3">
         <f t="shared" si="7"/>
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -4404,7 +4443,7 @@
         <v>5</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="E96" s="3">
         <v>2</v>
@@ -4424,11 +4463,11 @@
         <v>25</v>
       </c>
       <c r="J96" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K96" s="3">
         <f t="shared" si="7"/>
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
@@ -4442,7 +4481,7 @@
         <v>5</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="E97" s="3">
         <v>2</v>
@@ -4462,11 +4501,11 @@
         <v>25</v>
       </c>
       <c r="J97" s="3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K97" s="3">
         <f t="shared" si="7"/>
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
@@ -4480,7 +4519,7 @@
         <v>5</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E98" s="3">
         <v>2</v>
@@ -4500,11 +4539,11 @@
         <v>25</v>
       </c>
       <c r="J98" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K98" s="3">
         <f t="shared" si="7"/>
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
@@ -4518,7 +4557,7 @@
         <v>5</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E99" s="3">
         <v>2</v>
@@ -4538,11 +4577,11 @@
         <v>25</v>
       </c>
       <c r="J99" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K99" s="3">
         <f t="shared" si="7"/>
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
@@ -4556,7 +4595,7 @@
         <v>5</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E100" s="3">
         <v>2</v>
@@ -4576,11 +4615,11 @@
         <v>25</v>
       </c>
       <c r="J100" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K100" s="3">
         <f t="shared" si="7"/>
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
@@ -4594,7 +4633,7 @@
         <v>5</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E101" s="3">
         <v>2</v>
@@ -4614,11 +4653,11 @@
         <v>25</v>
       </c>
       <c r="J101" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K101" s="3">
         <f t="shared" si="7"/>
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
@@ -4632,7 +4671,7 @@
         <v>5</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E102" s="3">
         <v>2</v>
@@ -4652,11 +4691,11 @@
         <v>25</v>
       </c>
       <c r="J102" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K102" s="3">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
@@ -4670,7 +4709,7 @@
         <v>5</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E103" s="3">
         <v>2</v>
@@ -4690,11 +4729,11 @@
         <v>25</v>
       </c>
       <c r="J103" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K103" s="3">
         <f t="shared" si="7"/>
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
@@ -4707,8 +4746,8 @@
       <c r="C104" s="3">
         <v>5</v>
       </c>
-      <c r="D104" s="3" t="s">
-        <v>78</v>
+      <c r="D104" s="3">
+        <v>7</v>
       </c>
       <c r="E104" s="3">
         <v>2</v>
@@ -4728,11 +4767,11 @@
         <v>25</v>
       </c>
       <c r="J104" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K104" s="3">
         <f t="shared" si="7"/>
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
@@ -4745,8 +4784,8 @@
       <c r="C105" s="3">
         <v>5</v>
       </c>
-      <c r="D105" s="3">
-        <v>7</v>
+      <c r="D105" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="E105" s="3">
         <v>2</v>
@@ -4784,7 +4823,7 @@
         <v>5</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="E106" s="3">
         <v>2</v>
@@ -4804,11 +4843,11 @@
         <v>25</v>
       </c>
       <c r="J106" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="K106" s="3">
         <f t="shared" si="7"/>
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
@@ -4822,7 +4861,7 @@
         <v>5</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="E107" s="3">
         <v>2</v>
@@ -4842,11 +4881,11 @@
         <v>25</v>
       </c>
       <c r="J107" s="3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K107" s="3">
         <f t="shared" si="7"/>
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
@@ -4860,7 +4899,7 @@
         <v>5</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E108" s="3">
         <v>2</v>
@@ -4872,7 +4911,7 @@
         <v>13</v>
       </c>
       <c r="H108" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="H108:H110" si="8">A108*B108</f>
         <v>75</v>
       </c>
       <c r="I108" s="3">
@@ -4880,11 +4919,11 @@
         <v>25</v>
       </c>
       <c r="J108" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K108" s="3">
         <f t="shared" si="7"/>
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
@@ -4898,7 +4937,7 @@
         <v>5</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E109" s="3">
         <v>2</v>
@@ -4910,7 +4949,7 @@
         <v>13</v>
       </c>
       <c r="H109" s="3">
-        <f t="shared" ref="H109:H111" si="8">A109*B109</f>
+        <f t="shared" si="8"/>
         <v>75</v>
       </c>
       <c r="I109" s="3">
@@ -4918,87 +4957,87 @@
         <v>25</v>
       </c>
       <c r="J109" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K109" s="3">
-        <f t="shared" si="7"/>
-        <v>40</v>
+        <f>J109*100/I109</f>
+        <v>32</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="3">
-        <v>5</v>
-      </c>
-      <c r="B110" s="3">
-        <v>15</v>
-      </c>
-      <c r="C110" s="3">
-        <v>5</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E110" s="3">
-        <v>2</v>
-      </c>
-      <c r="F110" s="3">
-        <v>13</v>
-      </c>
-      <c r="G110" s="3">
-        <v>13</v>
-      </c>
-      <c r="H110" s="3">
+      <c r="A110" s="5">
+        <v>5</v>
+      </c>
+      <c r="B110" s="5">
+        <v>15</v>
+      </c>
+      <c r="C110" s="5">
+        <v>5</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E110" s="5">
+        <v>2</v>
+      </c>
+      <c r="F110" s="5">
+        <v>13</v>
+      </c>
+      <c r="G110" s="5">
+        <v>13</v>
+      </c>
+      <c r="H110" s="5">
         <f t="shared" si="8"/>
         <v>75</v>
       </c>
-      <c r="I110" s="3">
+      <c r="I110" s="5">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="J110" s="3">
-        <v>8</v>
-      </c>
-      <c r="K110" s="3">
+      <c r="J110" s="5">
+        <v>13</v>
+      </c>
+      <c r="K110" s="5">
         <f>J110*100/I110</f>
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="5">
-        <v>5</v>
-      </c>
-      <c r="B111" s="5">
-        <v>15</v>
-      </c>
-      <c r="C111" s="5">
-        <v>5</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E111" s="5">
-        <v>2</v>
-      </c>
-      <c r="F111" s="5">
-        <v>13</v>
-      </c>
-      <c r="G111" s="5">
-        <v>13</v>
-      </c>
-      <c r="H111" s="5">
-        <f t="shared" si="8"/>
-        <v>75</v>
-      </c>
-      <c r="I111" s="5">
-        <f t="shared" si="6"/>
-        <v>25</v>
-      </c>
-      <c r="J111" s="5">
-        <v>13</v>
-      </c>
-      <c r="K111" s="5">
+      <c r="A111" s="6">
+        <v>5</v>
+      </c>
+      <c r="B111" s="6">
+        <v>15</v>
+      </c>
+      <c r="C111" s="6">
+        <v>5</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E111" s="6">
+        <v>2</v>
+      </c>
+      <c r="F111" s="6">
+        <v>13</v>
+      </c>
+      <c r="G111" s="6">
+        <v>13</v>
+      </c>
+      <c r="H111" s="6">
+        <f t="shared" ref="H111" si="9">A111*B111</f>
+        <v>75</v>
+      </c>
+      <c r="I111" s="6">
+        <f t="shared" ref="I111" si="10">PRODUCT(A98,C111)</f>
+        <v>25</v>
+      </c>
+      <c r="J111" s="6">
+        <v>9</v>
+      </c>
+      <c r="K111" s="6">
         <f>J111*100/I111</f>
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
@@ -5012,7 +5051,7 @@
         <v>5</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E112" s="6">
         <v>2</v>
@@ -5024,19 +5063,19 @@
         <v>13</v>
       </c>
       <c r="H112" s="6">
-        <f t="shared" ref="H112" si="9">A112*B112</f>
+        <f t="shared" ref="H112:H160" si="11">A112*B112</f>
         <v>75</v>
       </c>
       <c r="I112" s="6">
-        <f t="shared" ref="I112" si="10">PRODUCT(A99,C112)</f>
+        <f t="shared" ref="I112:I149" si="12">PRODUCT(A99,C112)</f>
         <v>25</v>
       </c>
       <c r="J112" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K112" s="6">
-        <f>J112*100/I112</f>
-        <v>36</v>
+        <f t="shared" ref="K112:K175" si="13">J112*100/I112</f>
+        <v>24</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
@@ -5050,7 +5089,7 @@
         <v>5</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E113" s="6">
         <v>2</v>
@@ -5062,19 +5101,19 @@
         <v>13</v>
       </c>
       <c r="H113" s="6">
-        <f t="shared" ref="H113:H150" si="11">A113*B113</f>
+        <f t="shared" si="11"/>
         <v>75</v>
       </c>
       <c r="I113" s="6">
-        <f t="shared" ref="I113:I150" si="12">PRODUCT(A100,C113)</f>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="J113" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K113" s="6">
-        <f t="shared" ref="K113:K150" si="13">J113*100/I113</f>
-        <v>24</v>
+        <f t="shared" si="13"/>
+        <v>16</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
@@ -5088,7 +5127,7 @@
         <v>5</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="E114" s="6">
         <v>2</v>
@@ -5108,11 +5147,11 @@
         <v>25</v>
       </c>
       <c r="J114" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K114" s="6">
         <f t="shared" si="13"/>
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
@@ -5126,7 +5165,7 @@
         <v>5</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="E115" s="6">
         <v>2</v>
@@ -5164,7 +5203,7 @@
         <v>5</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E116" s="6">
         <v>2</v>
@@ -5184,11 +5223,11 @@
         <v>25</v>
       </c>
       <c r="J116" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K116" s="6">
         <f t="shared" si="13"/>
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
@@ -5202,7 +5241,7 @@
         <v>5</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E117" s="6">
         <v>2</v>
@@ -5222,11 +5261,11 @@
         <v>25</v>
       </c>
       <c r="J117" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K117" s="6">
         <f t="shared" si="13"/>
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
@@ -5240,7 +5279,7 @@
         <v>5</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E118" s="6">
         <v>2</v>
@@ -5260,11 +5299,11 @@
         <v>25</v>
       </c>
       <c r="J118" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K118" s="6">
         <f t="shared" si="13"/>
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
@@ -5278,7 +5317,7 @@
         <v>5</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E119" s="6">
         <v>2</v>
@@ -5316,7 +5355,7 @@
         <v>5</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E120" s="6">
         <v>2</v>
@@ -5336,11 +5375,11 @@
         <v>25</v>
       </c>
       <c r="J120" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K120" s="6">
         <f t="shared" si="13"/>
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
@@ -5354,7 +5393,7 @@
         <v>5</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E121" s="6">
         <v>2</v>
@@ -5392,7 +5431,7 @@
         <v>5</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E122" s="6">
         <v>2</v>
@@ -5412,11 +5451,11 @@
         <v>25</v>
       </c>
       <c r="J122" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K122" s="6">
         <f t="shared" si="13"/>
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
@@ -5430,7 +5469,7 @@
         <v>5</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E123" s="6">
         <v>2</v>
@@ -5450,11 +5489,11 @@
         <v>25</v>
       </c>
       <c r="J123" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K123" s="6">
         <f t="shared" si="13"/>
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
@@ -5468,7 +5507,7 @@
         <v>5</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E124" s="6">
         <v>2</v>
@@ -5505,8 +5544,8 @@
       <c r="C125" s="6">
         <v>5</v>
       </c>
-      <c r="D125" s="6" t="s">
-        <v>96</v>
+      <c r="D125" s="6">
+        <v>8</v>
       </c>
       <c r="E125" s="6">
         <v>2</v>
@@ -5526,11 +5565,11 @@
         <v>25</v>
       </c>
       <c r="J125" s="6">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K125" s="6">
         <f t="shared" si="13"/>
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
@@ -5543,8 +5582,8 @@
       <c r="C126" s="6">
         <v>5</v>
       </c>
-      <c r="D126" s="6">
-        <v>8</v>
+      <c r="D126" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="E126" s="6">
         <v>2</v>
@@ -5564,11 +5603,11 @@
         <v>25</v>
       </c>
       <c r="J126" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K126" s="6">
         <f t="shared" si="13"/>
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
@@ -5582,7 +5621,7 @@
         <v>5</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E127" s="6">
         <v>2</v>
@@ -5602,11 +5641,11 @@
         <v>25</v>
       </c>
       <c r="J127" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K127" s="6">
         <f t="shared" si="13"/>
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
@@ -5620,7 +5659,7 @@
         <v>5</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E128" s="6">
         <v>2</v>
@@ -5640,11 +5679,11 @@
         <v>25</v>
       </c>
       <c r="J128" s="6">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K128" s="6">
         <f t="shared" si="13"/>
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
@@ -5658,7 +5697,7 @@
         <v>5</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E129" s="6">
         <v>2</v>
@@ -5678,11 +5717,11 @@
         <v>25</v>
       </c>
       <c r="J129" s="6">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K129" s="6">
         <f t="shared" si="13"/>
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
@@ -5696,7 +5735,7 @@
         <v>5</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E130" s="6">
         <v>2</v>
@@ -5716,11 +5755,11 @@
         <v>25</v>
       </c>
       <c r="J130" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K130" s="6">
         <f t="shared" si="13"/>
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
@@ -5734,7 +5773,7 @@
         <v>5</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E131" s="6">
         <v>2</v>
@@ -5754,11 +5793,11 @@
         <v>25</v>
       </c>
       <c r="J131" s="6">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K131" s="6">
         <f t="shared" si="13"/>
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
@@ -5772,7 +5811,7 @@
         <v>5</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E132" s="6">
         <v>2</v>
@@ -5792,11 +5831,11 @@
         <v>25</v>
       </c>
       <c r="J132" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K132" s="6">
         <f t="shared" si="13"/>
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
@@ -5810,7 +5849,7 @@
         <v>5</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E133" s="6">
         <v>2</v>
@@ -5830,11 +5869,11 @@
         <v>25</v>
       </c>
       <c r="J133" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K133" s="6">
         <f t="shared" si="13"/>
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
@@ -5848,7 +5887,7 @@
         <v>5</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E134" s="6">
         <v>2</v>
@@ -5868,11 +5907,11 @@
         <v>25</v>
       </c>
       <c r="J134" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K134" s="6">
         <f t="shared" si="13"/>
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
@@ -5886,7 +5925,7 @@
         <v>5</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E135" s="6">
         <v>2</v>
@@ -5906,89 +5945,89 @@
         <v>25</v>
       </c>
       <c r="J135" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K135" s="6">
         <f t="shared" si="13"/>
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A136" s="6">
-        <v>5</v>
-      </c>
-      <c r="B136" s="6">
-        <v>15</v>
-      </c>
-      <c r="C136" s="6">
-        <v>5</v>
-      </c>
-      <c r="D136" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E136" s="6">
-        <v>2</v>
-      </c>
-      <c r="F136" s="6">
-        <v>13</v>
-      </c>
-      <c r="G136" s="6">
-        <v>13</v>
-      </c>
-      <c r="H136" s="6">
+      <c r="A136" s="5">
+        <v>5</v>
+      </c>
+      <c r="B136" s="5">
+        <v>15</v>
+      </c>
+      <c r="C136" s="5">
+        <v>5</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E136" s="5">
+        <v>2</v>
+      </c>
+      <c r="F136" s="5">
+        <v>13</v>
+      </c>
+      <c r="G136" s="5">
+        <v>13</v>
+      </c>
+      <c r="H136" s="5">
         <f t="shared" si="11"/>
         <v>75</v>
       </c>
-      <c r="I136" s="6">
+      <c r="I136" s="5">
         <f t="shared" si="12"/>
         <v>25</v>
       </c>
-      <c r="J136" s="6">
+      <c r="J136" s="5">
+        <v>13</v>
+      </c>
+      <c r="K136" s="5">
+        <f t="shared" si="13"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" s="6">
+        <v>5</v>
+      </c>
+      <c r="B137" s="6">
+        <v>15</v>
+      </c>
+      <c r="C137" s="6">
+        <v>5</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E137" s="6">
+        <v>2</v>
+      </c>
+      <c r="F137" s="6">
+        <v>13</v>
+      </c>
+      <c r="G137" s="6">
+        <v>13</v>
+      </c>
+      <c r="H137" s="6">
+        <f t="shared" si="11"/>
+        <v>75</v>
+      </c>
+      <c r="I137" s="6">
+        <f t="shared" si="12"/>
+        <v>25</v>
+      </c>
+      <c r="J137" s="6">
         <v>10</v>
       </c>
-      <c r="K136" s="6">
+      <c r="K137" s="6">
         <f t="shared" si="13"/>
         <v>40</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A137" s="5">
-        <v>5</v>
-      </c>
-      <c r="B137" s="5">
-        <v>15</v>
-      </c>
-      <c r="C137" s="5">
-        <v>5</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E137" s="5">
-        <v>2</v>
-      </c>
-      <c r="F137" s="5">
-        <v>13</v>
-      </c>
-      <c r="G137" s="5">
-        <v>13</v>
-      </c>
-      <c r="H137" s="5">
-        <f t="shared" si="11"/>
-        <v>75</v>
-      </c>
-      <c r="I137" s="5">
-        <f t="shared" si="12"/>
-        <v>25</v>
-      </c>
-      <c r="J137" s="5">
-        <v>13</v>
-      </c>
-      <c r="K137" s="5">
-        <f t="shared" si="13"/>
-        <v>52</v>
-      </c>
-    </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="6">
         <v>5</v>
@@ -6000,7 +6039,7 @@
         <v>5</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E138" s="6">
         <v>2</v>
@@ -6020,11 +6059,11 @@
         <v>25</v>
       </c>
       <c r="J138" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K138" s="6">
         <f t="shared" si="13"/>
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
@@ -6037,8 +6076,8 @@
       <c r="C139" s="6">
         <v>5</v>
       </c>
-      <c r="D139" s="6" t="s">
-        <v>106</v>
+      <c r="D139" s="6">
+        <v>9</v>
       </c>
       <c r="E139" s="6">
         <v>2</v>
@@ -6058,11 +6097,11 @@
         <v>25</v>
       </c>
       <c r="J139" s="6">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K139" s="6">
         <f t="shared" si="13"/>
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
@@ -6075,8 +6114,8 @@
       <c r="C140" s="6">
         <v>5</v>
       </c>
-      <c r="D140" s="6">
-        <v>9</v>
+      <c r="D140" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="E140" s="6">
         <v>2</v>
@@ -6096,11 +6135,11 @@
         <v>25</v>
       </c>
       <c r="J140" s="6">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K140" s="6">
         <f t="shared" si="13"/>
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
@@ -6114,7 +6153,7 @@
         <v>5</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E141" s="6">
         <v>2</v>
@@ -6134,11 +6173,11 @@
         <v>25</v>
       </c>
       <c r="J141" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K141" s="6">
         <f t="shared" si="13"/>
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
@@ -6152,7 +6191,7 @@
         <v>5</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E142" s="6">
         <v>2</v>
@@ -6172,11 +6211,11 @@
         <v>25</v>
       </c>
       <c r="J142" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K142" s="6">
         <f t="shared" si="13"/>
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
@@ -6190,7 +6229,7 @@
         <v>5</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E143" s="6">
         <v>2</v>
@@ -6210,11 +6249,11 @@
         <v>25</v>
       </c>
       <c r="J143" s="6">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K143" s="6">
         <f t="shared" si="13"/>
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
@@ -6228,7 +6267,7 @@
         <v>5</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E144" s="6">
         <v>2</v>
@@ -6248,14 +6287,14 @@
         <v>25</v>
       </c>
       <c r="J144" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K144" s="6">
         <f t="shared" si="13"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="6">
         <v>5</v>
       </c>
@@ -6266,7 +6305,7 @@
         <v>5</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E145" s="6">
         <v>2</v>
@@ -6293,7 +6332,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="6">
         <v>5</v>
       </c>
@@ -6304,7 +6343,7 @@
         <v>5</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E146" s="6">
         <v>2</v>
@@ -6324,14 +6363,14 @@
         <v>25</v>
       </c>
       <c r="J146" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K146" s="6">
         <f t="shared" si="13"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" s="6">
         <v>5</v>
       </c>
@@ -6342,7 +6381,7 @@
         <v>5</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E147" s="6">
         <v>2</v>
@@ -6362,14 +6401,14 @@
         <v>25</v>
       </c>
       <c r="J147" s="6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K147" s="6">
         <f t="shared" si="13"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="6">
         <v>5</v>
       </c>
@@ -6380,7 +6419,7 @@
         <v>5</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E148" s="6">
         <v>2</v>
@@ -6400,14 +6439,14 @@
         <v>25</v>
       </c>
       <c r="J148" s="6">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K148" s="6">
         <f t="shared" si="13"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="6">
         <v>5</v>
       </c>
@@ -6418,7 +6457,7 @@
         <v>5</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E149" s="6">
         <v>2</v>
@@ -6445,46 +6484,1352 @@
         <v>36</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A150" s="6">
-        <v>5</v>
-      </c>
-      <c r="B150" s="6">
-        <v>15</v>
-      </c>
-      <c r="C150" s="6">
-        <v>5</v>
-      </c>
-      <c r="D150" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E150" s="6">
-        <v>2</v>
-      </c>
-      <c r="F150" s="6">
-        <v>13</v>
-      </c>
-      <c r="G150" s="6">
-        <v>13</v>
-      </c>
-      <c r="H150" s="6">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A150" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B150" s="15"/>
+      <c r="C150" s="15"/>
+      <c r="D150" s="15"/>
+      <c r="E150" s="15"/>
+      <c r="F150" s="15"/>
+      <c r="G150" s="15"/>
+      <c r="H150" s="15"/>
+      <c r="I150" s="15"/>
+      <c r="J150" s="15"/>
+      <c r="K150" s="15"/>
+      <c r="L150" s="15"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A151" s="3">
+        <v>4</v>
+      </c>
+      <c r="B151" s="3">
+        <v>20</v>
+      </c>
+      <c r="C151" s="3">
+        <v>10</v>
+      </c>
+      <c r="D151" s="3">
+        <v>6</v>
+      </c>
+      <c r="E151" s="3">
+        <v>1</v>
+      </c>
+      <c r="F151" s="3">
+        <v>13</v>
+      </c>
+      <c r="G151" s="3">
+        <v>13</v>
+      </c>
+      <c r="H151" s="6">
         <f t="shared" si="11"/>
-        <v>75</v>
-      </c>
-      <c r="I150" s="6">
-        <f t="shared" si="12"/>
-        <v>25</v>
-      </c>
-      <c r="J150" s="6">
+        <v>80</v>
+      </c>
+      <c r="I151" s="6">
+        <f>PRODUCT(A151,C151)</f>
+        <v>40</v>
+      </c>
+      <c r="J151" s="3">
+        <v>15</v>
+      </c>
+      <c r="K151" s="6">
+        <f t="shared" si="13"/>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A152" s="3">
+        <v>4</v>
+      </c>
+      <c r="B152" s="3">
+        <v>20</v>
+      </c>
+      <c r="C152" s="3">
+        <v>10</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E152" s="3">
+        <v>2</v>
+      </c>
+      <c r="F152" s="3">
+        <v>13</v>
+      </c>
+      <c r="G152" s="3">
+        <v>13</v>
+      </c>
+      <c r="H152" s="6">
+        <f t="shared" si="11"/>
+        <v>80</v>
+      </c>
+      <c r="I152" s="6">
+        <f>PRODUCT(A152,C152)</f>
+        <v>40</v>
+      </c>
+      <c r="J152" s="3">
+        <v>14</v>
+      </c>
+      <c r="K152" s="6">
+        <f t="shared" si="13"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A153" s="3">
+        <v>4</v>
+      </c>
+      <c r="B153" s="3">
+        <v>20</v>
+      </c>
+      <c r="C153" s="3">
+        <v>10</v>
+      </c>
+      <c r="D153" s="3">
+        <v>3</v>
+      </c>
+      <c r="E153" s="3">
+        <v>1</v>
+      </c>
+      <c r="F153" s="3">
+        <v>13</v>
+      </c>
+      <c r="G153" s="3">
+        <v>13</v>
+      </c>
+      <c r="H153" s="6">
+        <f t="shared" si="11"/>
+        <v>80</v>
+      </c>
+      <c r="I153" s="6">
+        <f>A153*C153</f>
+        <v>40</v>
+      </c>
+      <c r="J153" s="3">
+        <v>17</v>
+      </c>
+      <c r="K153" s="6">
+        <f t="shared" si="13"/>
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A154" s="3">
+        <v>4</v>
+      </c>
+      <c r="B154" s="3">
+        <v>20</v>
+      </c>
+      <c r="C154" s="3">
+        <v>10</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E154" s="3">
+        <v>2</v>
+      </c>
+      <c r="F154" s="3">
+        <v>13</v>
+      </c>
+      <c r="G154" s="3">
+        <v>13</v>
+      </c>
+      <c r="H154" s="6">
+        <f>A154*B154</f>
+        <v>80</v>
+      </c>
+      <c r="I154" s="6">
+        <f>A154*C154</f>
+        <v>40</v>
+      </c>
+      <c r="J154" s="3">
         <v>9</v>
       </c>
-      <c r="K150" s="6">
+      <c r="K154" s="6">
         <f t="shared" si="13"/>
-        <v>36</v>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A155" s="12">
+        <v>4</v>
+      </c>
+      <c r="B155" s="12">
+        <v>20</v>
+      </c>
+      <c r="C155" s="12">
+        <v>10</v>
+      </c>
+      <c r="D155" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E155" s="12">
+        <v>2</v>
+      </c>
+      <c r="F155" s="12">
+        <v>13</v>
+      </c>
+      <c r="G155" s="12">
+        <v>13</v>
+      </c>
+      <c r="H155" s="12">
+        <f t="shared" si="11"/>
+        <v>80</v>
+      </c>
+      <c r="I155" s="12">
+        <f t="shared" ref="I155:I218" si="14">A155*C155</f>
+        <v>40</v>
+      </c>
+      <c r="J155" s="12">
+        <v>18</v>
+      </c>
+      <c r="K155" s="12">
+        <f t="shared" si="13"/>
+        <v>45</v>
+      </c>
+      <c r="L155" s="13"/>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A156" s="12">
+        <v>4</v>
+      </c>
+      <c r="B156" s="12">
+        <v>20</v>
+      </c>
+      <c r="C156" s="12">
+        <v>10</v>
+      </c>
+      <c r="D156" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E156" s="12">
+        <v>2</v>
+      </c>
+      <c r="F156" s="12">
+        <v>13</v>
+      </c>
+      <c r="G156" s="12">
+        <v>13</v>
+      </c>
+      <c r="H156" s="12">
+        <f t="shared" si="11"/>
+        <v>80</v>
+      </c>
+      <c r="I156" s="12">
+        <f t="shared" si="14"/>
+        <v>40</v>
+      </c>
+      <c r="J156" s="12">
+        <v>19</v>
+      </c>
+      <c r="K156" s="12">
+        <f t="shared" si="13"/>
+        <v>47.5</v>
+      </c>
+      <c r="L156" s="13"/>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A157" s="3">
+        <v>4</v>
+      </c>
+      <c r="B157" s="3">
+        <v>20</v>
+      </c>
+      <c r="C157" s="3">
+        <v>10</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E157" s="3">
+        <v>2</v>
+      </c>
+      <c r="F157" s="3">
+        <v>13</v>
+      </c>
+      <c r="G157" s="3">
+        <v>13</v>
+      </c>
+      <c r="H157" s="6">
+        <f t="shared" si="11"/>
+        <v>80</v>
+      </c>
+      <c r="I157" s="6">
+        <f t="shared" si="14"/>
+        <v>40</v>
+      </c>
+      <c r="J157" s="3">
+        <v>18</v>
+      </c>
+      <c r="K157" s="6">
+        <f t="shared" si="13"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A158" s="3">
+        <v>4</v>
+      </c>
+      <c r="B158" s="3">
+        <v>20</v>
+      </c>
+      <c r="C158" s="3">
+        <v>10</v>
+      </c>
+      <c r="D158" s="3">
+        <v>100</v>
+      </c>
+      <c r="E158" s="3">
+        <v>1</v>
+      </c>
+      <c r="F158" s="3">
+        <v>13</v>
+      </c>
+      <c r="G158" s="3">
+        <v>13</v>
+      </c>
+      <c r="H158" s="6">
+        <f t="shared" si="11"/>
+        <v>80</v>
+      </c>
+      <c r="I158" s="6">
+        <f t="shared" si="14"/>
+        <v>40</v>
+      </c>
+      <c r="J158" s="3">
+        <v>12</v>
+      </c>
+      <c r="K158" s="6">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A159" s="3">
+        <v>4</v>
+      </c>
+      <c r="B159" s="3">
+        <v>20</v>
+      </c>
+      <c r="C159" s="3">
+        <v>10</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E159" s="3">
+        <v>2</v>
+      </c>
+      <c r="F159" s="3">
+        <v>13</v>
+      </c>
+      <c r="G159" s="3">
+        <v>13</v>
+      </c>
+      <c r="H159" s="6">
+        <f t="shared" si="11"/>
+        <v>80</v>
+      </c>
+      <c r="I159" s="6">
+        <f t="shared" si="14"/>
+        <v>40</v>
+      </c>
+      <c r="J159" s="3">
+        <v>12</v>
+      </c>
+      <c r="K159" s="6">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A160" s="12">
+        <v>4</v>
+      </c>
+      <c r="B160" s="12">
+        <v>20</v>
+      </c>
+      <c r="C160" s="12">
+        <v>10</v>
+      </c>
+      <c r="D160" s="12">
+        <v>96</v>
+      </c>
+      <c r="E160" s="12">
+        <v>1</v>
+      </c>
+      <c r="F160" s="12">
+        <v>6</v>
+      </c>
+      <c r="G160" s="12">
+        <v>6</v>
+      </c>
+      <c r="H160" s="12">
+        <f t="shared" si="11"/>
+        <v>80</v>
+      </c>
+      <c r="I160" s="12">
+        <f t="shared" si="14"/>
+        <v>40</v>
+      </c>
+      <c r="J160" s="12">
+        <v>18</v>
+      </c>
+      <c r="K160" s="12">
+        <f t="shared" si="13"/>
+        <v>45</v>
+      </c>
+      <c r="L160" s="13"/>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A161" s="3">
+        <v>4</v>
+      </c>
+      <c r="B161" s="3">
+        <v>20</v>
+      </c>
+      <c r="C161" s="3">
+        <v>10</v>
+      </c>
+      <c r="D161" s="3">
+        <v>128</v>
+      </c>
+      <c r="E161" s="3">
+        <v>1</v>
+      </c>
+      <c r="F161" s="3">
+        <v>8</v>
+      </c>
+      <c r="G161" s="3">
+        <v>8</v>
+      </c>
+      <c r="H161" s="6">
+        <f>A161*B161</f>
+        <v>80</v>
+      </c>
+      <c r="I161" s="6">
+        <f t="shared" si="14"/>
+        <v>40</v>
+      </c>
+      <c r="J161" s="3">
+        <v>13</v>
+      </c>
+      <c r="K161" s="6">
+        <f t="shared" si="13"/>
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A162" s="3">
+        <v>4</v>
+      </c>
+      <c r="B162" s="3">
+        <v>20</v>
+      </c>
+      <c r="C162" s="3">
+        <v>10</v>
+      </c>
+      <c r="D162" s="3">
+        <v>266</v>
+      </c>
+      <c r="E162" s="3">
+        <v>1</v>
+      </c>
+      <c r="F162" s="3">
+        <v>29</v>
+      </c>
+      <c r="G162" s="3">
+        <v>29</v>
+      </c>
+      <c r="H162" s="6">
+        <f>A162*B162</f>
+        <v>80</v>
+      </c>
+      <c r="I162" s="6">
+        <f t="shared" si="14"/>
+        <v>40</v>
+      </c>
+      <c r="J162" s="3">
+        <v>9</v>
+      </c>
+      <c r="K162" s="6">
+        <f>J162*100/I162</f>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A163" s="3">
+        <v>4</v>
+      </c>
+      <c r="B163" s="3">
+        <v>20</v>
+      </c>
+      <c r="C163" s="3">
+        <v>10</v>
+      </c>
+      <c r="H163" s="6">
+        <f>A163*B163</f>
+        <v>80</v>
+      </c>
+      <c r="I163" s="6">
+        <f t="shared" si="14"/>
+        <v>40</v>
+      </c>
+      <c r="K163" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A164" s="3">
+        <v>4</v>
+      </c>
+      <c r="B164" s="3">
+        <v>20</v>
+      </c>
+      <c r="C164" s="3">
+        <v>10</v>
+      </c>
+      <c r="H164" s="6">
+        <f>A164*B164</f>
+        <v>80</v>
+      </c>
+      <c r="I164" s="6">
+        <f>A164*C164</f>
+        <v>40</v>
+      </c>
+      <c r="K164" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A165" s="3">
+        <v>4</v>
+      </c>
+      <c r="B165" s="3">
+        <v>20</v>
+      </c>
+      <c r="C165" s="3">
+        <v>10</v>
+      </c>
+      <c r="H165" s="6">
+        <f>A165*B165</f>
+        <v>80</v>
+      </c>
+      <c r="I165" s="6">
+        <f t="shared" si="14"/>
+        <v>40</v>
+      </c>
+      <c r="K165" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A166" s="3">
+        <v>4</v>
+      </c>
+      <c r="B166" s="3">
+        <v>20</v>
+      </c>
+      <c r="C166" s="3">
+        <v>10</v>
+      </c>
+      <c r="H166" s="6">
+        <f t="shared" ref="H166:H221" si="15">A166*B166</f>
+        <v>80</v>
+      </c>
+      <c r="I166" s="6">
+        <f t="shared" si="14"/>
+        <v>40</v>
+      </c>
+      <c r="K166" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H167" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I167" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K167" s="6" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H168" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I168" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K168" s="6" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H169" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I169" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K169" s="6" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H170" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I170" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K170" s="6" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H171" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I171" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K171" s="6" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H172" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I172" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K172" s="6" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H173" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I173" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K173" s="6" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H174" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I174" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K174" s="6" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H175" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I175" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K175" s="6" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H176" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I176" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K176" s="6" t="e">
+        <f t="shared" ref="K176:K221" si="16">J176*100/I176</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="177" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H177" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I177" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K177" s="6" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="178" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H178" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I178" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K178" s="6" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="179" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H179" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I179" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K179" s="6" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="180" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H180" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I180" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K180" s="6" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="181" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H181" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I181" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K181" s="6" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="182" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H182" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I182" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K182" s="6" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="183" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H183" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I183" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K183" s="6" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="184" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H184" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I184" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K184" s="6" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="185" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H185" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I185" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K185" s="6" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="186" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H186" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I186" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K186" s="6" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="187" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H187" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I187" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K187" s="6" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="188" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H188" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I188" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K188" s="6" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="189" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H189" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I189" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K189" s="6" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="190" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H190" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I190" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K190" s="6" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="191" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H191" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I191" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K191" s="6" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="192" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H192" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I192" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K192" s="6" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="193" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H193" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I193" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K193" s="6" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="194" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H194" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I194" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K194" s="6" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="195" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H195" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I195" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K195" s="6" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="196" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H196" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I196" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K196" s="6" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="197" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H197" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I197" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K197" s="6" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="198" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H198" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I198" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K198" s="6" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="199" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H199" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I199" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K199" s="6" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="200" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H200" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I200" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K200" s="6" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="201" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H201" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I201" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K201" s="6" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="202" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H202" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I202" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K202" s="6" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="203" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H203" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I203" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K203" s="6" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="204" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H204" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I204" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K204" s="6" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="205" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H205" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I205" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K205" s="6" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="206" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H206" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I206" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K206" s="6" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="207" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H207" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I207" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K207" s="6" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="208" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H208" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I208" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K208" s="6" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="209" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H209" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I209" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K209" s="6" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="210" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H210" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I210" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K210" s="6" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="211" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H211" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I211" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K211" s="6" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="212" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H212" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I212" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K212" s="6" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="213" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H213" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I213" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K213" s="6" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="214" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H214" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I214" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K214" s="6" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="215" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H215" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I215" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K215" s="6" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="216" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H216" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I216" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K216" s="6" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="217" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H217" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I217" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K217" s="6" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="218" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H218" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I218" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K218" s="6" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="219" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H219" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I219" s="6">
+        <f t="shared" ref="I219:I221" si="17">A219*C219</f>
+        <v>0</v>
+      </c>
+      <c r="K219" s="6" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="220" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H220" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I220" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K220" s="6" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="221" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H221" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I221" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K221" s="6" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A150:L150"/>
+    <mergeCell ref="A2:L2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="I151" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>